--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Col1a1-Cd93.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Col1a1-Cd93.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>89.95998966666667</v>
+        <v>91.94136433333334</v>
       </c>
       <c r="H2">
-        <v>269.879969</v>
+        <v>275.824093</v>
       </c>
       <c r="I2">
-        <v>0.02265176537473209</v>
+        <v>0.02307547609860541</v>
       </c>
       <c r="J2">
-        <v>0.0226517653747321</v>
+        <v>0.02307547609860541</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>229.5846506666667</v>
+        <v>211.2725676666666</v>
       </c>
       <c r="N2">
-        <v>688.753952</v>
+        <v>633.8177029999999</v>
       </c>
       <c r="O2">
-        <v>0.5033187360873315</v>
+        <v>0.6324644927232657</v>
       </c>
       <c r="P2">
-        <v>0.5033187360873315</v>
+        <v>0.6324644927232657</v>
       </c>
       <c r="Q2">
-        <v>20653.43280159861</v>
+        <v>19424.68811747982</v>
       </c>
       <c r="R2">
-        <v>185880.8952143875</v>
+        <v>174822.1930573184</v>
       </c>
       <c r="S2">
-        <v>0.01140105791855694</v>
+        <v>0.01459441928505231</v>
       </c>
       <c r="T2">
-        <v>0.01140105791855694</v>
+        <v>0.01459441928505231</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>89.95998966666667</v>
+        <v>91.94136433333334</v>
       </c>
       <c r="H3">
-        <v>269.879969</v>
+        <v>275.824093</v>
       </c>
       <c r="I3">
-        <v>0.02265176537473209</v>
+        <v>0.02307547609860541</v>
       </c>
       <c r="J3">
-        <v>0.0226517653747321</v>
+        <v>0.02307547609860541</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>135.7283196666666</v>
+        <v>59.36675400000001</v>
       </c>
       <c r="N3">
-        <v>407.1849589999999</v>
+        <v>178.100262</v>
       </c>
       <c r="O3">
-        <v>0.2975573763642838</v>
+        <v>0.1777200152765546</v>
       </c>
       <c r="P3">
-        <v>0.2975573763642838</v>
+        <v>0.1777200152765546</v>
       </c>
       <c r="Q3">
-        <v>12210.11823468736</v>
+        <v>5458.260358801375</v>
       </c>
       <c r="R3">
-        <v>109891.0641121863</v>
+        <v>49124.34322921237</v>
       </c>
       <c r="S3">
-        <v>0.006740199874924608</v>
+        <v>0.004100973964757925</v>
       </c>
       <c r="T3">
-        <v>0.00674019987492461</v>
+        <v>0.004100973964757924</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>89.95998966666667</v>
+        <v>91.94136433333334</v>
       </c>
       <c r="H4">
-        <v>269.879969</v>
+        <v>275.824093</v>
       </c>
       <c r="I4">
-        <v>0.02265176537473209</v>
+        <v>0.02307547609860541</v>
       </c>
       <c r="J4">
-        <v>0.0226517653747321</v>
+        <v>0.02307547609860541</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5972149999999999</v>
+        <v>0.4593846666666666</v>
       </c>
       <c r="N4">
-        <v>1.791645</v>
+        <v>1.378154</v>
       </c>
       <c r="O4">
-        <v>0.001309275241613694</v>
+        <v>0.001375211620595172</v>
       </c>
       <c r="P4">
-        <v>0.001309275241613694</v>
+        <v>0.001375211620595172</v>
       </c>
       <c r="Q4">
-        <v>53.72545522877833</v>
+        <v>42.23645300714688</v>
       </c>
       <c r="R4">
-        <v>483.529097059005</v>
+        <v>380.128077064322</v>
       </c>
       <c r="S4">
-        <v>2.965739558397908E-05</v>
+        <v>3.173366288156831E-05</v>
       </c>
       <c r="T4">
-        <v>2.965739558397908E-05</v>
+        <v>3.173366288156831E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>89.95998966666667</v>
+        <v>91.94136433333334</v>
       </c>
       <c r="H5">
-        <v>269.879969</v>
+        <v>275.824093</v>
       </c>
       <c r="I5">
-        <v>0.02265176537473209</v>
+        <v>0.02307547609860541</v>
       </c>
       <c r="J5">
-        <v>0.0226517653747321</v>
+        <v>0.02307547609860541</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>90.23148833333333</v>
+        <v>62.94782133333333</v>
       </c>
       <c r="N5">
-        <v>270.694465</v>
+        <v>188.843464</v>
       </c>
       <c r="O5">
-        <v>0.197814612306771</v>
+        <v>0.1884402803795846</v>
       </c>
       <c r="P5">
-        <v>0.197814612306771</v>
+        <v>0.1884402803795846</v>
       </c>
       <c r="Q5">
-        <v>8117.22375807462</v>
+        <v>5787.508575197572</v>
       </c>
       <c r="R5">
-        <v>73055.01382267158</v>
+        <v>52087.57717677815</v>
       </c>
       <c r="S5">
-        <v>0.004480850185666569</v>
+        <v>0.004348349185913608</v>
       </c>
       <c r="T5">
-        <v>0.004480850185666569</v>
+        <v>0.004348349185913607</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>11572.705078</v>
       </c>
       <c r="I6">
-        <v>0.9713288509301208</v>
+        <v>0.9681738695089209</v>
       </c>
       <c r="J6">
-        <v>0.971328850930121</v>
+        <v>0.9681738695089209</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>229.5846506666667</v>
+        <v>211.2725676666666</v>
       </c>
       <c r="N6">
-        <v>688.753952</v>
+        <v>633.8177029999999</v>
       </c>
       <c r="O6">
-        <v>0.5033187360873315</v>
+        <v>0.6324644927232657</v>
       </c>
       <c r="P6">
-        <v>0.5033187360873315</v>
+        <v>0.6324644927232657</v>
       </c>
       <c r="Q6">
-        <v>885638.4842003298</v>
+        <v>814998.3722260438</v>
       </c>
       <c r="R6">
-        <v>7970746.357802968</v>
+        <v>7334985.350034394</v>
       </c>
       <c r="S6">
-        <v>0.4888880095753084</v>
+        <v>0.6123355952468809</v>
       </c>
       <c r="T6">
-        <v>0.4888880095753085</v>
+        <v>0.6123355952468809</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>11572.705078</v>
       </c>
       <c r="I7">
-        <v>0.9713288509301208</v>
+        <v>0.9681738695089209</v>
       </c>
       <c r="J7">
-        <v>0.971328850930121</v>
+        <v>0.9681738695089209</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>135.7283196666666</v>
+        <v>59.36675400000001</v>
       </c>
       <c r="N7">
-        <v>407.1849589999999</v>
+        <v>178.100262</v>
       </c>
       <c r="O7">
-        <v>0.2975573763642838</v>
+        <v>0.1777200152765546</v>
       </c>
       <c r="P7">
-        <v>0.2975573763642838</v>
+        <v>0.1777200152765546</v>
       </c>
       <c r="Q7">
-        <v>523581.2714116133</v>
+        <v>229011.3118267256</v>
       </c>
       <c r="R7">
-        <v>4712231.442704521</v>
+        <v>2061101.80644053</v>
       </c>
       <c r="S7">
-        <v>0.2890260644697012</v>
+        <v>0.1720638748794864</v>
       </c>
       <c r="T7">
-        <v>0.2890260644697013</v>
+        <v>0.1720638748794864</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>11572.705078</v>
       </c>
       <c r="I8">
-        <v>0.9713288509301208</v>
+        <v>0.9681738695089209</v>
       </c>
       <c r="J8">
-        <v>0.971328850930121</v>
+        <v>0.9681738695089209</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.5972149999999999</v>
+        <v>0.4593846666666666</v>
       </c>
       <c r="N8">
-        <v>1.791645</v>
+        <v>1.378154</v>
       </c>
       <c r="O8">
-        <v>0.001309275241613694</v>
+        <v>0.001375211620595172</v>
       </c>
       <c r="P8">
-        <v>0.001309275241613694</v>
+        <v>0.001375211620595172</v>
       </c>
       <c r="Q8">
-        <v>2303.797687719256</v>
+        <v>1772.107754896223</v>
       </c>
       <c r="R8">
-        <v>20734.17918947331</v>
+        <v>15948.96979406601</v>
       </c>
       <c r="S8">
-        <v>0.001271736815987886</v>
+        <v>0.001331443956105262</v>
       </c>
       <c r="T8">
-        <v>0.001271736815987887</v>
+        <v>0.001331443956105262</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>11572.705078</v>
       </c>
       <c r="I9">
-        <v>0.9713288509301208</v>
+        <v>0.9681738695089209</v>
       </c>
       <c r="J9">
-        <v>0.971328850930121</v>
+        <v>0.9681738695089209</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>90.23148833333333</v>
+        <v>62.94782133333333</v>
       </c>
       <c r="N9">
-        <v>270.694465</v>
+        <v>188.843464</v>
       </c>
       <c r="O9">
-        <v>0.197814612306771</v>
+        <v>0.1884402803795846</v>
       </c>
       <c r="P9">
-        <v>0.197814612306771</v>
+        <v>0.1884402803795846</v>
       </c>
       <c r="Q9">
-        <v>348074.1344102214</v>
+        <v>242825.5238644344</v>
       </c>
       <c r="R9">
-        <v>3132667.209691993</v>
+        <v>2185429.71477991</v>
       </c>
       <c r="S9">
-        <v>0.1921430400691232</v>
+        <v>0.1824429554264484</v>
       </c>
       <c r="T9">
-        <v>0.1921430400691232</v>
+        <v>0.1824429554264484</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.1342213333333333</v>
+        <v>1.840730666666667</v>
       </c>
       <c r="H10">
-        <v>0.402664</v>
+        <v>5.522192</v>
       </c>
       <c r="I10">
-        <v>3.379669297668818E-05</v>
+        <v>0.000461987232956876</v>
       </c>
       <c r="J10">
-        <v>3.379669297668818E-05</v>
+        <v>0.000461987232956876</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>229.5846506666667</v>
+        <v>211.2725676666666</v>
       </c>
       <c r="N10">
-        <v>688.753952</v>
+        <v>633.8177029999999</v>
       </c>
       <c r="O10">
-        <v>0.5033187360873315</v>
+        <v>0.6324644927232657</v>
       </c>
       <c r="P10">
-        <v>0.5033187360873315</v>
+        <v>0.6324644927232657</v>
       </c>
       <c r="Q10">
-        <v>30.81515792534756</v>
+        <v>388.8958943294418</v>
       </c>
       <c r="R10">
-        <v>277.336421328128</v>
+        <v>3500.063048964976</v>
       </c>
       <c r="S10">
-        <v>1.701050879295829E-05</v>
+        <v>0.0002921905209366958</v>
       </c>
       <c r="T10">
-        <v>1.701050879295829E-05</v>
+        <v>0.0002921905209366958</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.1342213333333333</v>
+        <v>1.840730666666667</v>
       </c>
       <c r="H11">
-        <v>0.402664</v>
+        <v>5.522192</v>
       </c>
       <c r="I11">
-        <v>3.379669297668818E-05</v>
+        <v>0.000461987232956876</v>
       </c>
       <c r="J11">
-        <v>3.379669297668818E-05</v>
+        <v>0.000461987232956876</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>135.7283196666666</v>
+        <v>59.36675400000001</v>
       </c>
       <c r="N11">
-        <v>407.1849589999999</v>
+        <v>178.100262</v>
       </c>
       <c r="O11">
-        <v>0.2975573763642838</v>
+        <v>0.1777200152765546</v>
       </c>
       <c r="P11">
-        <v>0.2975573763642838</v>
+        <v>0.1777200152765546</v>
       </c>
       <c r="Q11">
-        <v>18.21763603675289</v>
+        <v>109.278204668256</v>
       </c>
       <c r="R11">
-        <v>163.958724330776</v>
+        <v>983.5038420143042</v>
       </c>
       <c r="S11">
-        <v>1.005645529193255E-05</v>
+        <v>8.210437809866918E-05</v>
       </c>
       <c r="T11">
-        <v>1.005645529193255E-05</v>
+        <v>8.210437809866918E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.1342213333333333</v>
+        <v>1.840730666666667</v>
       </c>
       <c r="H12">
-        <v>0.402664</v>
+        <v>5.522192</v>
       </c>
       <c r="I12">
-        <v>3.379669297668818E-05</v>
+        <v>0.000461987232956876</v>
       </c>
       <c r="J12">
-        <v>3.379669297668818E-05</v>
+        <v>0.000461987232956876</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.5972149999999999</v>
+        <v>0.4593846666666666</v>
       </c>
       <c r="N12">
-        <v>1.791645</v>
+        <v>1.378154</v>
       </c>
       <c r="O12">
-        <v>0.001309275241613694</v>
+        <v>0.001375211620595172</v>
       </c>
       <c r="P12">
-        <v>0.001309275241613694</v>
+        <v>0.001375211620595172</v>
       </c>
       <c r="Q12">
-        <v>0.08015899358666666</v>
+        <v>0.8456034437297777</v>
       </c>
       <c r="R12">
-        <v>0.72143094228</v>
+        <v>7.610430993568</v>
       </c>
       <c r="S12">
-        <v>4.424917336279727E-08</v>
+        <v>6.353302113289048E-07</v>
       </c>
       <c r="T12">
-        <v>4.424917336279727E-08</v>
+        <v>6.353302113289048E-07</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.1342213333333333</v>
+        <v>1.840730666666667</v>
       </c>
       <c r="H13">
-        <v>0.402664</v>
+        <v>5.522192</v>
       </c>
       <c r="I13">
-        <v>3.379669297668818E-05</v>
+        <v>0.000461987232956876</v>
       </c>
       <c r="J13">
-        <v>3.379669297668818E-05</v>
+        <v>0.000461987232956876</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>90.23148833333333</v>
+        <v>62.94782133333333</v>
       </c>
       <c r="N13">
-        <v>270.694465</v>
+        <v>188.843464</v>
       </c>
       <c r="O13">
-        <v>0.197814612306771</v>
+        <v>0.1884402803795846</v>
       </c>
       <c r="P13">
-        <v>0.197814612306771</v>
+        <v>0.1884402803795846</v>
       </c>
       <c r="Q13">
-        <v>12.11099067275111</v>
+        <v>115.8699851281209</v>
       </c>
       <c r="R13">
-        <v>108.99891605476</v>
+        <v>1042.829866153088</v>
       </c>
       <c r="S13">
-        <v>6.685479718434543E-06</v>
+        <v>8.705700371018219E-05</v>
       </c>
       <c r="T13">
-        <v>6.685479718434543E-06</v>
+        <v>8.705700371018219E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>23.51770233333333</v>
+        <v>31.11921133333334</v>
       </c>
       <c r="H14">
-        <v>70.553107</v>
+        <v>93.357634</v>
       </c>
       <c r="I14">
-        <v>0.005921715613589566</v>
+        <v>0.007810310653280575</v>
       </c>
       <c r="J14">
-        <v>0.005921715613589568</v>
+        <v>0.007810310653280575</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>229.5846506666667</v>
+        <v>211.2725676666666</v>
       </c>
       <c r="N14">
-        <v>688.753952</v>
+        <v>633.8177029999999</v>
       </c>
       <c r="O14">
-        <v>0.5033187360873315</v>
+        <v>0.6324644927232657</v>
       </c>
       <c r="P14">
-        <v>0.5033187360873315</v>
+        <v>0.6324644927232657</v>
       </c>
       <c r="Q14">
-        <v>5399.303474680984</v>
+        <v>6574.635682154967</v>
       </c>
       <c r="R14">
-        <v>48593.73127212886</v>
+        <v>59171.7211393947</v>
       </c>
       <c r="S14">
-        <v>0.002980510418100517</v>
+        <v>0.004939744165338216</v>
       </c>
       <c r="T14">
-        <v>0.002980510418100518</v>
+        <v>0.004939744165338216</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>23.51770233333333</v>
+        <v>31.11921133333334</v>
       </c>
       <c r="H15">
-        <v>70.553107</v>
+        <v>93.357634</v>
       </c>
       <c r="I15">
-        <v>0.005921715613589566</v>
+        <v>0.007810310653280575</v>
       </c>
       <c r="J15">
-        <v>0.005921715613589568</v>
+        <v>0.007810310653280575</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>135.7283196666666</v>
+        <v>59.36675400000001</v>
       </c>
       <c r="N15">
-        <v>407.1849589999999</v>
+        <v>178.100262</v>
       </c>
       <c r="O15">
-        <v>0.2975573763642838</v>
+        <v>0.1777200152765546</v>
       </c>
       <c r="P15">
-        <v>0.2975573763642838</v>
+        <v>0.1777200152765546</v>
       </c>
       <c r="Q15">
-        <v>3192.018220124178</v>
+        <v>1847.446563900012</v>
       </c>
       <c r="R15">
-        <v>28728.16398111761</v>
+        <v>16627.01907510011</v>
       </c>
       <c r="S15">
-        <v>0.001762050161555126</v>
+        <v>0.001388048528615661</v>
       </c>
       <c r="T15">
-        <v>0.001762050161555127</v>
+        <v>0.001388048528615661</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>23.51770233333333</v>
+        <v>31.11921133333334</v>
       </c>
       <c r="H16">
-        <v>70.553107</v>
+        <v>93.357634</v>
       </c>
       <c r="I16">
-        <v>0.005921715613589566</v>
+        <v>0.007810310653280575</v>
       </c>
       <c r="J16">
-        <v>0.005921715613589568</v>
+        <v>0.007810310653280575</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.5972149999999999</v>
+        <v>0.4593846666666666</v>
       </c>
       <c r="N16">
-        <v>1.791645</v>
+        <v>1.378154</v>
       </c>
       <c r="O16">
-        <v>0.001309275241613694</v>
+        <v>0.001375211620595172</v>
       </c>
       <c r="P16">
-        <v>0.001309275241613694</v>
+        <v>0.001375211620595172</v>
       </c>
       <c r="Q16">
-        <v>14.04512459900167</v>
+        <v>14.29568852529289</v>
       </c>
       <c r="R16">
-        <v>126.406121391015</v>
+        <v>128.661196727636</v>
       </c>
       <c r="S16">
-        <v>7.753155640750066E-06</v>
+        <v>1.074082997084972E-05</v>
       </c>
       <c r="T16">
-        <v>7.753155640750069E-06</v>
+        <v>1.074082997084972E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>23.51770233333333</v>
+        <v>31.11921133333334</v>
       </c>
       <c r="H17">
-        <v>70.553107</v>
+        <v>93.357634</v>
       </c>
       <c r="I17">
-        <v>0.005921715613589566</v>
+        <v>0.007810310653280575</v>
       </c>
       <c r="J17">
-        <v>0.005921715613589568</v>
+        <v>0.007810310653280575</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>90.23148833333333</v>
+        <v>62.94782133333333</v>
       </c>
       <c r="N17">
-        <v>270.694465</v>
+        <v>188.843464</v>
       </c>
       <c r="O17">
-        <v>0.197814612306771</v>
+        <v>0.1884402803795846</v>
       </c>
       <c r="P17">
-        <v>0.197814612306771</v>
+        <v>0.1884402803795846</v>
       </c>
       <c r="Q17">
-        <v>2122.037283716973</v>
+        <v>1958.886555044909</v>
       </c>
       <c r="R17">
-        <v>19098.33555345275</v>
+        <v>17629.97899540417</v>
       </c>
       <c r="S17">
-        <v>0.001171401878293173</v>
+        <v>0.001471777129355848</v>
       </c>
       <c r="T17">
-        <v>0.001171401878293173</v>
+        <v>0.001471777129355848</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,22 +1526,22 @@
         <v>20</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.253661</v>
+        <v>1.905952</v>
       </c>
       <c r="H18">
-        <v>0.760983</v>
+        <v>5.717856</v>
       </c>
       <c r="I18">
-        <v>6.387138858074995E-05</v>
+        <v>0.0004783565062362683</v>
       </c>
       <c r="J18">
-        <v>6.387138858074996E-05</v>
+        <v>0.0004783565062362683</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>229.5846506666667</v>
+        <v>211.2725676666666</v>
       </c>
       <c r="N18">
-        <v>688.753952</v>
+        <v>633.8177029999999</v>
       </c>
       <c r="O18">
-        <v>0.5033187360873315</v>
+        <v>0.6324644927232657</v>
       </c>
       <c r="P18">
-        <v>0.5033187360873315</v>
+        <v>0.6324644927232657</v>
       </c>
       <c r="Q18">
-        <v>58.23667207275733</v>
+        <v>402.6753728894187</v>
       </c>
       <c r="R18">
-        <v>524.1300486548161</v>
+        <v>3624.078356004768</v>
       </c>
       <c r="S18">
-        <v>3.214766657260588E-05</v>
+        <v>0.0003025435050575951</v>
       </c>
       <c r="T18">
-        <v>3.214766657260588E-05</v>
+        <v>0.0003025435050575951</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,22 +1588,22 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.253661</v>
+        <v>1.905952</v>
       </c>
       <c r="H19">
-        <v>0.760983</v>
+        <v>5.717856</v>
       </c>
       <c r="I19">
-        <v>6.387138858074995E-05</v>
+        <v>0.0004783565062362683</v>
       </c>
       <c r="J19">
-        <v>6.387138858074996E-05</v>
+        <v>0.0004783565062362683</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>135.7283196666666</v>
+        <v>59.36675400000001</v>
       </c>
       <c r="N19">
-        <v>407.1849589999999</v>
+        <v>178.100262</v>
       </c>
       <c r="O19">
-        <v>0.2975573763642838</v>
+        <v>0.1777200152765546</v>
       </c>
       <c r="P19">
-        <v>0.2975573763642838</v>
+        <v>0.1777200152765546</v>
       </c>
       <c r="Q19">
-        <v>34.42898129496632</v>
+        <v>113.150183519808</v>
       </c>
       <c r="R19">
-        <v>309.8608316546969</v>
+        <v>1018.351651678272</v>
       </c>
       <c r="S19">
-        <v>1.900540281083163E-05</v>
+        <v>8.501352559594889E-05</v>
       </c>
       <c r="T19">
-        <v>1.900540281083163E-05</v>
+        <v>8.501352559594888E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,22 +1650,22 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.253661</v>
+        <v>1.905952</v>
       </c>
       <c r="H20">
-        <v>0.760983</v>
+        <v>5.717856</v>
       </c>
       <c r="I20">
-        <v>6.387138858074995E-05</v>
+        <v>0.0004783565062362683</v>
       </c>
       <c r="J20">
-        <v>6.387138858074996E-05</v>
+        <v>0.0004783565062362683</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.5972149999999999</v>
+        <v>0.4593846666666666</v>
       </c>
       <c r="N20">
-        <v>1.791645</v>
+        <v>1.378154</v>
       </c>
       <c r="O20">
-        <v>0.001309275241613694</v>
+        <v>0.001375211620595172</v>
       </c>
       <c r="P20">
-        <v>0.001309275241613694</v>
+        <v>0.001375211620595172</v>
       </c>
       <c r="Q20">
-        <v>0.151490154115</v>
+        <v>0.8755651242026666</v>
       </c>
       <c r="R20">
-        <v>1.363411387035</v>
+        <v>7.880086117824</v>
       </c>
       <c r="S20">
-        <v>8.362522771626355E-08</v>
+        <v>6.578414261634232E-07</v>
       </c>
       <c r="T20">
-        <v>8.362522771626357E-08</v>
+        <v>6.578414261634232E-07</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,22 +1712,22 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.253661</v>
+        <v>1.905952</v>
       </c>
       <c r="H21">
-        <v>0.760983</v>
+        <v>5.717856</v>
       </c>
       <c r="I21">
-        <v>6.387138858074995E-05</v>
+        <v>0.0004783565062362683</v>
       </c>
       <c r="J21">
-        <v>6.387138858074996E-05</v>
+        <v>0.0004783565062362683</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>90.23148833333333</v>
+        <v>62.94782133333333</v>
       </c>
       <c r="N21">
-        <v>270.694465</v>
+        <v>188.843464</v>
       </c>
       <c r="O21">
-        <v>0.197814612306771</v>
+        <v>0.1884402803795846</v>
       </c>
       <c r="P21">
-        <v>0.197814612306771</v>
+        <v>0.1884402803795846</v>
       </c>
       <c r="Q21">
-        <v>22.88820956212166</v>
+        <v>119.9755259659093</v>
       </c>
       <c r="R21">
-        <v>205.993886059095</v>
+        <v>1079.779733693184</v>
       </c>
       <c r="S21">
-        <v>1.263469396959617E-05</v>
+        <v>9.014163415656093E-05</v>
       </c>
       <c r="T21">
-        <v>1.263469396959617E-05</v>
+        <v>9.014163415656091E-05</v>
       </c>
     </row>
   </sheetData>
